--- a/AAII_Financials/Yearly/JOAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JOAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>JOAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42763</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42399</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2762300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2241200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2324800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2314300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,51 +737,57 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1396100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1135900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1148300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1130300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1124900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1195400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1366200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1105300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1176500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1184000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,9 +797,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +814,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,9 +841,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,63 +871,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="E14" s="3">
         <v>483000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-19700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E15" s="3">
         <v>77500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>76000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>78800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>80200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>87700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,23 +945,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2453000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2673800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2178100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2153400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,24 +972,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>309300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-432600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>160900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,9 +1002,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,8 +1019,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1000,8 +1034,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1012,24 +1046,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>389300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-355100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>222700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>239700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,90 +1076,102 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E22" s="3">
         <v>101900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>101100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>95400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>97900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-534500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>50500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>51400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,24 +1196,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-546600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,24 +1226,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-546600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,9 +1256,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,24 +1286,27 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>-400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>52300</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,9 +1316,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1346,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,9 +1376,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1324,8 +1394,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1336,24 +1406,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-546600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>96500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,9 +1436,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,24 +1466,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-546600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>96500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,41 +1496,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42763</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42399</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1548,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,35 +1562,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E41" s="3">
         <v>24400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,9 +1619,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,21 +1649,24 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>555900</v>
+      </c>
+      <c r="E44" s="3">
         <v>649700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>615800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,21 +1679,24 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E45" s="3">
         <v>45700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,36 +1709,42 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>654800</v>
+      </c>
+      <c r="E46" s="3">
         <v>719800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>710000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>642100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>605100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>646500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1664,21 +1769,24 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1117500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1016100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>298400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,36 +1799,42 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>539200</v>
+      </c>
+      <c r="E49" s="3">
         <v>546200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1047200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>643800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>640000</v>
       </c>
       <c r="H49" s="3">
         <v>640000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>640000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1859,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,21 +1889,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E52" s="3">
         <v>19200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,9 +1919,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1949,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2337300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2301300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2070800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2035600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2029000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2123500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1996,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,20 +2010,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E57" s="3">
         <v>227100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>224900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,21 +2037,24 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>10600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,21 +2067,24 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>352900</v>
+      </c>
+      <c r="E59" s="3">
         <v>260500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>144000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,75 +2097,84 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>608600</v>
+      </c>
+      <c r="E60" s="3">
         <v>498200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>394900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>347200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>312300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>296000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>793500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1212800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1106300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1123000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1178600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1289400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>892800</v>
+      </c>
+      <c r="E62" s="3">
         <v>762300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>196400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,9 +2187,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2217,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2247,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,21 +2277,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2294900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2473300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1697600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,9 +2307,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2324,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2351,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2381,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2411,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,21 +2441,24 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-281300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>265300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,9 +2471,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2501,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2531,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2561,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-172000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>373200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>338600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>241600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,56 +2621,62 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42763</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42399</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-546600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>96500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,9 +2686,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,23 +2703,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
         <v>77500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,9 +2730,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2760,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2790,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2820,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2850,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,24 +2880,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>327100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>99000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>97700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,9 +2910,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,23 +2927,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,9 +2954,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2984,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3014,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3061,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3088,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3118,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3148,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,36 +3178,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-288400</v>
+      </c>
+      <c r="E100" s="3">
         <v>86300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-125500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-58100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2989,24 +3238,27 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3268,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JOAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JOAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>JOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42763</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42399</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2417600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2762300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2241200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2324800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2314300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,57 +743,63 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1204900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1396100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1135900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1148300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1130300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1124900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1195400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1212700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1366200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1105300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1176500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1184000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -844,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,69 +890,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-155100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>483000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-19700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E15" s="3">
         <v>80000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>77500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>76000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>78800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>80200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>87700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,26 +971,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2321200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2453000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2673800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2178100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2153400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,27 +1001,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E18" s="3">
         <v>309300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-432600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>160900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1005,9 +1034,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,13 +1052,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1037,8 +1070,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1049,27 +1082,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E21" s="3">
         <v>389300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-355100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>222700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>239700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1079,99 +1115,111 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E22" s="3">
         <v>69000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>101900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>101100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>95400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>97900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E23" s="3">
         <v>240300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-534500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>50500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,27 +1247,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E26" s="3">
         <v>212300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-546600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1229,27 +1280,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E27" s="3">
         <v>212300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-546600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,9 +1313,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,9 +1346,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,15 +1361,15 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>52300</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,9 +1379,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,14 +1445,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-24500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1397,8 +1466,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1409,27 +1478,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E33" s="3">
         <v>212300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-546600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>96500</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1439,9 +1511,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,27 +1544,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E35" s="3">
         <v>212300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-546600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>96500</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1499,44 +1577,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42763</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42399</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,38 +1648,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E41" s="3">
         <v>27400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,9 +1711,12 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1652,24 +1744,27 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>658600</v>
+      </c>
+      <c r="E44" s="3">
         <v>555900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>649700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>615800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,24 +1777,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E45" s="3">
         <v>71500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,39 +1810,45 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>720300</v>
+      </c>
+      <c r="E46" s="3">
         <v>654800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>719800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>710000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>642100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>605100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>646500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,24 +1876,27 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1074800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1117500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1016100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>298400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,39 +1909,45 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>532300</v>
+      </c>
+      <c r="E49" s="3">
         <v>539200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>546200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1047200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>643800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>640000</v>
       </c>
       <c r="I49" s="3">
         <v>640000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>640000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,24 +2008,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E52" s="3">
         <v>25800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,9 +2041,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2362200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2337300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2301300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2070800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2035600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2029000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2123500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,23 +2140,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E57" s="3">
         <v>250100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>227100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>224900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,24 +2170,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2070,24 +2203,27 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E59" s="3">
         <v>352900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>260500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>144000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,84 +2236,93 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>576800</v>
+      </c>
+      <c r="E60" s="3">
         <v>608600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>498200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>394900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>347200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>312300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>296000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>786400</v>
+      </c>
+      <c r="E61" s="3">
         <v>793500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1212800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1106300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1123000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1178600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1289400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>849200</v>
+      </c>
+      <c r="E62" s="3">
         <v>892800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>762300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>196400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,9 +2335,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,24 +2434,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2212400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2294900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2473300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1697600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,9 +2467,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,24 +2614,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-281300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>265300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,9 +2647,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E76" s="3">
         <v>42400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-172000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>373200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>338600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>241600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,62 +2812,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42763</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42399</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E81" s="3">
         <v>212300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-546600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>96500</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2689,9 +2883,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,26 +2901,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E83" s="3">
         <v>80000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,9 +2931,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,27 +3096,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E89" s="3">
         <v>327100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>99000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>97700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2913,9 +3129,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,26 +3147,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-78600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2957,9 +3177,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-79500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,13 +3294,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-12600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3091,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,39 +3423,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-288400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>86300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-125500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-58100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3241,27 +3489,30 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3271,7 +3522,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JOAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JOAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>JOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42763</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42399</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2216900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2417600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2762300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2241200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2324800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2314300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,63 +749,69 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1176600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1204900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1396100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1135900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1148300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1130300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1124900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1195400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1040300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1212700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1366200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1105300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1176500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1184000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,9 +821,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,75 +909,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-155100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>483000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-19700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E15" s="3">
         <v>80100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>80000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>77500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>76000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>78800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>80200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>87700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,29 +997,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2425500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2321200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2453000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2673800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2178100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2153400</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,30 +1030,33 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-208600</v>
+      </c>
+      <c r="E18" s="3">
         <v>96400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>309300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-432600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>146700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>160900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,9 +1066,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,17 +1085,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>24500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1073,8 +1106,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1085,30 +1118,33 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="E21" s="3">
         <v>201000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>389300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-355100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>222700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>239700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,108 +1154,120 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E22" s="3">
         <v>51200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>69000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>101900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>101100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>95400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>97900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-271600</v>
+      </c>
+      <c r="E23" s="3">
         <v>69700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>240300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-534500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>50500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E24" s="3">
         <v>13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,30 +1298,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="E26" s="3">
         <v>56700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>212300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-546600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,30 +1334,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="E27" s="3">
         <v>56700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>212300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-546600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,9 +1370,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,9 +1406,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,15 +1424,15 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>52300</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,9 +1442,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,18 +1514,21 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1469,8 +1538,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1481,30 +1550,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="E33" s="3">
         <v>56700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>212300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-546600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>96500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1514,9 +1586,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,30 +1622,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="E35" s="3">
         <v>56700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>212300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-546600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>96500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,47 +1658,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42763</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42399</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,41 +1734,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E41" s="3">
         <v>22500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>88100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,9 +1803,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1747,27 +1839,30 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>584100</v>
+      </c>
+      <c r="E44" s="3">
         <v>658600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>555900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>649700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>615800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,27 +1875,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E45" s="3">
         <v>39200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>71500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,42 +1911,48 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>642900</v>
+      </c>
+      <c r="E46" s="3">
         <v>720300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>654800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>719800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>710000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>642100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>605100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>646500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,27 +1983,30 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1066200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1074800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1117500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1016100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>298400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,42 +2019,48 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>434100</v>
+      </c>
+      <c r="E49" s="3">
         <v>532300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>539200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>546200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1047200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>643800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>640000</v>
       </c>
       <c r="J49" s="3">
         <v>640000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>640000</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,27 +2127,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E52" s="3">
         <v>34800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,9 +2163,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2180800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2362200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2337300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2301300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2070800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2035600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2029000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2123500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,26 +2270,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E57" s="3">
         <v>253800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>250100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>227100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>224900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,27 +2303,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,27 +2339,30 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E59" s="3">
         <v>307000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>352900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>260500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>144000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,93 +2375,102 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E60" s="3">
         <v>576800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>608600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>498200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>394900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>347200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>312300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>296000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>984200</v>
+      </c>
+      <c r="E61" s="3">
         <v>786400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>793500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1212800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1106300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1123000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1178600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1289400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>744700</v>
+      </c>
+      <c r="E62" s="3">
         <v>849200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>892800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>762300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>196400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2338,9 +2483,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,27 +2591,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2229900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2212400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2294900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2473300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1697600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,9 +2627,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,27 +2787,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-281300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>265300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,9 +2823,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E76" s="3">
         <v>149800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-172000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>373200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>338600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>241600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,68 +3003,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42763</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42399</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="E81" s="3">
         <v>56700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>212300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-546600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>96500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,9 +3080,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,29 +3099,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E83" s="3">
         <v>80100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78800</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,9 +3132,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,30 +3312,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>327100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>99000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>97700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3132,9 +3348,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,29 +3367,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-78600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,9 +3400,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-79500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-49700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-39900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,17 +3527,18 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3327,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,42 +3668,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E100" s="3">
         <v>31900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-288400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>86300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-42300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-125500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-58100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3492,30 +3740,33 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3776,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
